--- a/Documentation/FC003_cost.xlsx
+++ b/Documentation/FC003_cost.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FC003" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
   <si>
     <t>C1</t>
   </si>
@@ -304,9 +304,6 @@
     <t xml:space="preserve">L78L33ABZ </t>
   </si>
   <si>
-    <t>MSP430G2212IN20</t>
-  </si>
-  <si>
     <t>Required component</t>
   </si>
   <si>
@@ -383,6 +380,24 @@
   </si>
   <si>
     <t>eBay</t>
+  </si>
+  <si>
+    <t>MSP430G2312</t>
+  </si>
+  <si>
+    <t>TME/Home</t>
+  </si>
+  <si>
+    <t>TME/Lomex</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ellenőrizni a bekötést</t>
+  </si>
+  <si>
+    <t>Várni a tesztig (elmegy-e 16MHz-ről)</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1222,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1381,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -1395,7 +1410,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -1409,10 +1424,10 @@
         <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1423,13 +1438,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1440,30 +1455,30 @@
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,7 +1497,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -1496,13 +1511,13 @@
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,7 +1754,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,9 +1768,9 @@
     <col min="16" max="16" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <v>50</v>
@@ -1770,10 +1785,10 @@
         <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1808,11 @@
       <c r="H3">
         <v>2.7280000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1814,8 +1832,11 @@
       <c r="H4">
         <v>2.1379999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1835,8 +1856,11 @@
       <c r="H5">
         <v>2.8759999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1853,8 +1877,11 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1874,8 +1901,11 @@
       <c r="H7">
         <v>6.9320000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1895,8 +1925,11 @@
       <c r="H8">
         <v>1.103</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1913,8 +1946,11 @@
         <f t="shared" si="0"/>
         <v>31.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1931,8 +1967,11 @@
         <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1949,8 +1988,11 @@
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1967,8 +2009,11 @@
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1985,8 +2030,11 @@
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2003,8 +2051,11 @@
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2021,8 +2072,11 @@
         <f t="shared" si="0"/>
         <v>19.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -2042,13 +2096,16 @@
       <c r="H16">
         <v>161.49299999999999</v>
       </c>
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2058,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>186.66</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>213.32</v>
+      </c>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2087,6 +2144,9 @@
       <c r="H18">
         <v>38.728999999999999</v>
       </c>
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2108,6 +2168,9 @@
       <c r="H19">
         <v>41.854999999999997</v>
       </c>
+      <c r="N19" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2129,6 +2192,9 @@
       <c r="H20">
         <v>70.820999999999998</v>
       </c>
+      <c r="N20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2150,6 +2216,9 @@
       <c r="H21">
         <v>159.52699999999999</v>
       </c>
+      <c r="N21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2169,10 +2238,16 @@
         <v>37.340000000000003</v>
       </c>
       <c r="H22">
-        <v>87.751999999999995</v>
+        <v>21.297000000000001</v>
       </c>
       <c r="I22" t="s">
         <v>93</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2194,6 +2269,9 @@
       </c>
       <c r="H23">
         <v>21.311</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2204,10 +2282,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
         <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
       </c>
       <c r="C26">
         <f>11/40</f>
@@ -2221,15 +2299,15 @@
         <v>15.38</v>
       </c>
       <c r="P26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2242,15 +2320,18 @@
         <v>30.861999999999998</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="N27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28">
         <f>8/40</f>
@@ -2266,10 +2347,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
         <v>108</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2282,7 +2363,10 @@
         <v>54.32</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="N29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2290,7 +2374,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2303,7 +2387,10 @@
         <v>28.658000000000001</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2311,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31">
         <f>2/40</f>
@@ -2322,12 +2409,12 @@
         <v>2.5</v>
       </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32">
         <v>3</v>
